--- a/data/trans_dic/Predimed_R2-Clase-trans_dic.xlsx
+++ b/data/trans_dic/Predimed_R2-Clase-trans_dic.xlsx
@@ -567,7 +567,7 @@
         <v>0.7939279963936822</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.7876262496276834</v>
+        <v>0.7876262496276832</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.7909440170313571</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.7575966693933284</v>
+        <v>0.7547195233579398</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.750516540266607</v>
+        <v>0.7532406023043146</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.7632787496602876</v>
+        <v>0.7628612120498426</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.829436697422268</v>
+        <v>0.8302010814576117</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.8178393687616367</v>
+        <v>0.8193929335411925</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.8150826919934234</v>
+        <v>0.8161424127795626</v>
       </c>
     </row>
     <row r="7">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.8220156592811794</v>
+        <v>0.8220156592811796</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.7637575855401381</v>
+        <v>0.763757585540138</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.7944878055647128</v>
+        <v>0.7944878055647125</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.7771517475288421</v>
+        <v>0.7821219895144166</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.7271595884945105</v>
+        <v>0.7234167414664844</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.7647672553393531</v>
+        <v>0.7665918223962449</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.8576916777432521</v>
+        <v>0.8559762332140453</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.798480681791396</v>
+        <v>0.7963267366655052</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8173592570911629</v>
+        <v>0.8193624287673255</v>
       </c>
     </row>
     <row r="10">
@@ -674,7 +674,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.7824724264083657</v>
+        <v>0.7824724264083658</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0.7556172502129846</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.7391929877956844</v>
+        <v>0.7375460800475476</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.6915261078790358</v>
+        <v>0.6884620626694283</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.7397602207188175</v>
+        <v>0.7417525830329402</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8229791884480631</v>
+        <v>0.82006984604814</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.8094135823685255</v>
+        <v>0.8099236643215513</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8046807016685013</v>
+        <v>0.8083548608121459</v>
       </c>
     </row>
     <row r="13">
@@ -729,13 +729,13 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.803073316771107</v>
+        <v>0.8030733167711072</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.7942903855037812</v>
+        <v>0.7942903855037811</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.7992177700747487</v>
+        <v>0.7992177700747488</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.7759679331699584</v>
+        <v>0.7741655544693347</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.7690409358129296</v>
+        <v>0.7677820935592428</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.7810426525119488</v>
+        <v>0.7807796216100779</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.8290624380796372</v>
+        <v>0.8278703496195343</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.8183574176323359</v>
+        <v>0.8167265461176829</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8183712422090642</v>
+        <v>0.8186039157528531</v>
       </c>
     </row>
     <row r="16">
@@ -784,10 +784,10 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.8964078220098427</v>
+        <v>0.8964078220098429</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.826271700423481</v>
+        <v>0.8262717004234811</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.8543665259350244</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.8621898003033033</v>
+        <v>0.8641219772115891</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.8013709938456922</v>
+        <v>0.8031497593865786</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.8365876575149225</v>
+        <v>0.8356382369601736</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.9197130476227885</v>
+        <v>0.9237462588212039</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.8489537491612829</v>
+        <v>0.8483062171158395</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.8733813870340383</v>
+        <v>0.8715960257272571</v>
       </c>
     </row>
     <row r="19">
@@ -839,10 +839,10 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.9287828819287867</v>
+        <v>0.9287828819287868</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.8796487511680371</v>
+        <v>0.879648751168037</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>0.8897055178182465</v>
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.8558165013645266</v>
+        <v>0.8543135724581704</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.8536485987501222</v>
+        <v>0.8590904255353091</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.8678095760929708</v>
+        <v>0.8682316840109487</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.970229698742975</v>
+        <v>0.9684127054181471</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.8996502952163279</v>
+        <v>0.9009618554418785</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.9057323508299849</v>
+        <v>0.9087603724571122</v>
       </c>
     </row>
     <row r="22">
@@ -897,10 +897,10 @@
         <v>0.8244137295943219</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.8141892588816267</v>
+        <v>0.814189258881627</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.8191208538642538</v>
+        <v>0.8191208538642539</v>
       </c>
     </row>
     <row r="23">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.8083514949873682</v>
+        <v>0.8095071937039405</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.8025254269006203</v>
+        <v>0.8026360784922602</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.8109531369866304</v>
+        <v>0.8096130886451439</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.8390972433095337</v>
+        <v>0.8389810752592627</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.8250115179667105</v>
+        <v>0.8255061461837916</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.8285586832946134</v>
+        <v>0.8279301146704383</v>
       </c>
     </row>
     <row r="25">
@@ -1078,13 +1078,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>398591</v>
+        <v>397077</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>355140</v>
+        <v>356429</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>762759</v>
+        <v>762342</v>
       </c>
     </row>
     <row r="7">
@@ -1095,13 +1095,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>436387</v>
+        <v>436790</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>386997</v>
+        <v>387732</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>814528</v>
+        <v>815587</v>
       </c>
     </row>
     <row r="8">
@@ -1150,13 +1150,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>355502</v>
+        <v>357775</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>297970</v>
+        <v>296436</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>663217</v>
+        <v>664799</v>
       </c>
     </row>
     <row r="11">
@@ -1167,13 +1167,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>392344</v>
+        <v>391559</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>327195</v>
+        <v>326312</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>708825</v>
+        <v>710563</v>
       </c>
     </row>
     <row r="12">
@@ -1222,13 +1222,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>328825</v>
+        <v>328092</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>122004</v>
+        <v>121463</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>459591</v>
+        <v>460829</v>
       </c>
     </row>
     <row r="15">
@@ -1239,13 +1239,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>366097</v>
+        <v>364802</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>142802</v>
+        <v>142892</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>499924</v>
+        <v>502207</v>
       </c>
     </row>
     <row r="16">
@@ -1294,13 +1294,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>811687</v>
+        <v>809801</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>629453</v>
+        <v>628423</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1456271</v>
+        <v>1455781</v>
       </c>
     </row>
     <row r="19">
@@ -1311,13 +1311,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>867225</v>
+        <v>865978</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>669818</v>
+        <v>668483</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1525871</v>
+        <v>1526305</v>
       </c>
     </row>
     <row r="20">
@@ -1366,13 +1366,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>448027</v>
+        <v>449031</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>623138</v>
+        <v>624521</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1085246</v>
+        <v>1084014</v>
       </c>
     </row>
     <row r="23">
@@ -1383,13 +1383,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>477918</v>
+        <v>480014</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>660138</v>
+        <v>659634</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>1132976</v>
+        <v>1130660</v>
       </c>
     </row>
     <row r="24">
@@ -1438,13 +1438,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>169782</v>
+        <v>169484</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>658049</v>
+        <v>662244</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>841127</v>
+        <v>841536</v>
       </c>
     </row>
     <row r="27">
@@ -1455,13 +1455,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>192480</v>
+        <v>192120</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>693510</v>
+        <v>694521</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>877884</v>
+        <v>880819</v>
       </c>
     </row>
     <row r="28">
@@ -1510,13 +1510,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>2580635</v>
+        <v>2584324</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>2749726</v>
+        <v>2750105</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>5367541</v>
+        <v>5358672</v>
       </c>
     </row>
     <row r="31">
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>2678789</v>
+        <v>2678419</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>2826771</v>
+        <v>2828466</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>5484069</v>
+        <v>5479909</v>
       </c>
     </row>
     <row r="32">
